--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,714 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_5</t>
+          <t>model_5_0_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3744884601028537</v>
+        <v>0.2429408329254606</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.758493157955059</v>
+        <v>0.1514423548127821</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2619732104432886</v>
+        <v>0.3481670994364133</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.987967908337918</v>
+        <v>0.212135861104836</v>
       </c>
       <c r="F2" t="n">
-        <v>1.521153688430786</v>
+        <v>0.8378413915634155</v>
       </c>
       <c r="G2" t="n">
-        <v>6.03043270111084</v>
+        <v>1.449533343315125</v>
       </c>
       <c r="H2" t="n">
-        <v>1.566353321075439</v>
+        <v>0.4810515940189362</v>
       </c>
       <c r="I2" t="n">
-        <v>3.929688930511475</v>
+        <v>0.9937768578529358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_6</t>
+          <t>model_5_0_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3452674690069097</v>
+        <v>0.2512561413512001</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.852255130038308</v>
+        <v>0.1305860278065826</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5672486729879329</v>
+        <v>-0.2146526476029917</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.171378652035381</v>
+        <v>0.04221911415414981</v>
       </c>
       <c r="F3" t="n">
-        <v>1.488814949989319</v>
+        <v>0.8286388516426086</v>
       </c>
       <c r="G3" t="n">
-        <v>6.149256706237793</v>
+        <v>1.485160946846008</v>
       </c>
       <c r="H3" t="n">
-        <v>1.945259213447571</v>
+        <v>0.896411657333374</v>
       </c>
       <c r="I3" t="n">
-        <v>4.170905113220215</v>
+        <v>1.208102345466614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_4</t>
+          <t>model_5_0_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3367662647727041</v>
+        <v>0.4215613069722006</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.5698139426706</v>
+        <v>0.2176362758038078</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2077151605804259</v>
+        <v>-0.208595957848797</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.867618523953849</v>
+        <v>0.1062995981093575</v>
       </c>
       <c r="F4" t="n">
-        <v>1.479406476020813</v>
+        <v>0.6401611566543579</v>
       </c>
       <c r="G4" t="n">
-        <v>5.791319847106934</v>
+        <v>1.336458802223206</v>
       </c>
       <c r="H4" t="n">
-        <v>1.499008655548096</v>
+        <v>0.8919417858123779</v>
       </c>
       <c r="I4" t="n">
-        <v>3.771408557891846</v>
+        <v>1.127274036407471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_7</t>
+          <t>model_5_0_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3333100319253854</v>
+        <v>0.6547333304004781</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.791795747843909</v>
+        <v>0.4678236617498618</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6250200341729133</v>
+        <v>-0.8205131655388846</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.166193326895077</v>
+        <v>0.1171956668846853</v>
       </c>
       <c r="F5" t="n">
-        <v>1.475581288337708</v>
+        <v>0.3821084499359131</v>
       </c>
       <c r="G5" t="n">
-        <v>6.072637557983398</v>
+        <v>0.9090807437896729</v>
       </c>
       <c r="H5" t="n">
-        <v>2.016964673995972</v>
+        <v>1.343535661697388</v>
       </c>
       <c r="I5" t="n">
-        <v>4.164085388183594</v>
+        <v>1.113530158996582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_9</t>
+          <t>model_5_0_11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3133094778700434</v>
+        <v>0.6547881192562768</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.690086576202859</v>
+        <v>0.4711413548303569</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6876836139172213</v>
+        <v>-0.8447227508122814</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.14213712658885</v>
+        <v>0.1129081845513944</v>
       </c>
       <c r="F6" t="n">
-        <v>1.453446507453918</v>
+        <v>0.3820478320121765</v>
       </c>
       <c r="G6" t="n">
-        <v>5.943741321563721</v>
+        <v>0.9034133553504944</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0947425365448</v>
+        <v>1.36140239238739</v>
       </c>
       <c r="I6" t="n">
-        <v>4.132447719573975</v>
+        <v>1.118938446044922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_8</t>
+          <t>model_5_0_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3067814782530842</v>
+        <v>0.6554996122614334</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.676688217255289</v>
+        <v>0.4732600807310715</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6341487987900998</v>
+        <v>-0.8577507561234246</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.111524903730719</v>
+        <v>0.1108409886899749</v>
       </c>
       <c r="F7" t="n">
-        <v>1.446221947669983</v>
+        <v>0.3812603950500488</v>
       </c>
       <c r="G7" t="n">
-        <v>5.926761627197266</v>
+        <v>0.8997940421104431</v>
       </c>
       <c r="H7" t="n">
-        <v>2.028295516967773</v>
+        <v>1.371016979217529</v>
       </c>
       <c r="I7" t="n">
-        <v>4.092187404632568</v>
+        <v>1.121545791625977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_10</t>
+          <t>model_5_0_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2891187805829447</v>
+        <v>0.6556823423532738</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.634614414648133</v>
+        <v>0.4637005135354108</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7665399170339451</v>
+        <v>-0.766073887651445</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.148860117953192</v>
+        <v>0.1292283746967942</v>
       </c>
       <c r="F8" t="n">
-        <v>1.426674723625183</v>
+        <v>0.3810581862926483</v>
       </c>
       <c r="G8" t="n">
-        <v>5.873441696166992</v>
+        <v>0.9161240458488464</v>
       </c>
       <c r="H8" t="n">
-        <v>2.192618370056152</v>
+        <v>1.303359508514404</v>
       </c>
       <c r="I8" t="n">
-        <v>4.141289710998535</v>
+        <v>1.098352789878845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_12</t>
+          <t>model_5_0_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2782730127524926</v>
+        <v>0.6571722164373955</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.766027363342769</v>
+        <v>0.4761530846898955</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6827808104279363</v>
+        <v>-0.862351234753975</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.178701354847442</v>
+        <v>0.1116482564195721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.414671659469604</v>
+        <v>0.3794093132019043</v>
       </c>
       <c r="G9" t="n">
-        <v>6.039980888366699</v>
+        <v>0.8948521018028259</v>
       </c>
       <c r="H9" t="n">
-        <v>2.088657140731812</v>
+        <v>1.374412178993225</v>
       </c>
       <c r="I9" t="n">
-        <v>4.180535793304443</v>
+        <v>1.120527505874634</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_13</t>
+          <t>model_5_0_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2635622727216953</v>
+        <v>0.6572333450553101</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.683586705966018</v>
+        <v>0.4406539254847771</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8133640030018225</v>
+        <v>-0.6073738523754888</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.19463809622625</v>
+        <v>0.156400858159532</v>
       </c>
       <c r="F10" t="n">
-        <v>1.398391008377075</v>
+        <v>0.3793416917324066</v>
       </c>
       <c r="G10" t="n">
-        <v>5.935503959655762</v>
+        <v>0.9554928541183472</v>
       </c>
       <c r="H10" t="n">
-        <v>2.250735998153687</v>
+        <v>1.186239242553711</v>
       </c>
       <c r="I10" t="n">
-        <v>4.20149564743042</v>
+        <v>1.064078450202942</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_11</t>
+          <t>model_5_0_24</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2579506292169247</v>
+        <v>0.6572425462059982</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.616496663246408</v>
+        <v>0.4920657159085137</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7224982253074388</v>
+        <v>-1.036689706991371</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.120056647292041</v>
+        <v>0.07505748579889249</v>
       </c>
       <c r="F11" t="n">
-        <v>1.392180681228638</v>
+        <v>0.37933149933815</v>
       </c>
       <c r="G11" t="n">
-        <v>5.850480556488037</v>
+        <v>0.8676695823669434</v>
       </c>
       <c r="H11" t="n">
-        <v>2.137953996658325</v>
+        <v>1.503073573112488</v>
       </c>
       <c r="I11" t="n">
-        <v>4.103407859802246</v>
+        <v>1.166681408882141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_14</t>
+          <t>model_5_0_9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2325180099506585</v>
+        <v>0.6580715254567583</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.505774241665597</v>
+        <v>0.4673827882810914</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8243802374959341</v>
+        <v>-0.7672782302719907</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.108821027655864</v>
+        <v>0.1315377741221033</v>
       </c>
       <c r="F12" t="n">
-        <v>1.364034295082092</v>
+        <v>0.3784140944480896</v>
       </c>
       <c r="G12" t="n">
-        <v>5.710162162780762</v>
+        <v>0.9098337888717651</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26440954208374</v>
+        <v>1.304248452186584</v>
       </c>
       <c r="I12" t="n">
-        <v>4.088631629943848</v>
+        <v>1.095439791679382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_20</t>
+          <t>model_5_0_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1465276711524284</v>
+        <v>0.6582109063610959</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.39751869228614</v>
+        <v>0.4816145732107079</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7998573985500914</v>
+        <v>-0.9081562989287406</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.042706548071462</v>
+        <v>0.102951653418262</v>
       </c>
       <c r="F13" t="n">
-        <v>1.268868327140808</v>
+        <v>0.3782598376274109</v>
       </c>
       <c r="G13" t="n">
-        <v>5.572969913482666</v>
+        <v>0.8855226039886475</v>
       </c>
       <c r="H13" t="n">
-        <v>2.233971834182739</v>
+        <v>1.408216238021851</v>
       </c>
       <c r="I13" t="n">
-        <v>4.00167989730835</v>
+        <v>1.131497025489807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_21</t>
+          <t>model_5_0_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1302040301748921</v>
+        <v>0.658344975524519</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.390909496323742</v>
+        <v>0.4828270785343209</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7489738044923031</v>
+        <v>-0.9229057309604229</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.016734920580018</v>
+        <v>0.09976061174113304</v>
       </c>
       <c r="F14" t="n">
-        <v>1.250802993774414</v>
+        <v>0.3781114220619202</v>
       </c>
       <c r="G14" t="n">
-        <v>5.564594745635986</v>
+        <v>0.8834514021873474</v>
       </c>
       <c r="H14" t="n">
-        <v>2.170815467834473</v>
+        <v>1.419101238250732</v>
       </c>
       <c r="I14" t="n">
-        <v>3.967522144317627</v>
+        <v>1.13552188873291</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_19</t>
+          <t>model_5_0_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.114843960930932</v>
+        <v>0.6585396417095928</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.075548241871604</v>
+        <v>0.4787853935568881</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.8474133079640567</v>
+        <v>-0.8697041448930178</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.899574906233467</v>
+        <v>0.1115106122315868</v>
       </c>
       <c r="F15" t="n">
-        <v>1.233803868293762</v>
+        <v>0.3778960108757019</v>
       </c>
       <c r="G15" t="n">
-        <v>5.164937973022461</v>
+        <v>0.8903555274009705</v>
       </c>
       <c r="H15" t="n">
-        <v>2.29299783706665</v>
+        <v>1.379838585853577</v>
       </c>
       <c r="I15" t="n">
-        <v>3.813436985015869</v>
+        <v>1.120701193809509</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_22</t>
+          <t>model_5_0_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1017814631296283</v>
+        <v>0.6587945774119868</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.245256271752986</v>
+        <v>0.4801459548104384</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7427029184688456</v>
+        <v>-0.885013989863187</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.939646343623784</v>
+        <v>0.1082717353455406</v>
       </c>
       <c r="F16" t="n">
-        <v>1.219347357749939</v>
+        <v>0.3776138424873352</v>
       </c>
       <c r="G16" t="n">
-        <v>5.380008220672607</v>
+        <v>0.8880313038825989</v>
       </c>
       <c r="H16" t="n">
-        <v>2.163032054901123</v>
+        <v>1.3911372423172</v>
       </c>
       <c r="I16" t="n">
-        <v>3.866137266159058</v>
+        <v>1.124786376953125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_3</t>
+          <t>model_5_0_23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1005810077431415</v>
+        <v>0.6588171345639016</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.892204151627997</v>
+        <v>0.4917423763174339</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02011626133240463</v>
+        <v>-1.009279900591719</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9106166225095573</v>
+        <v>0.08237193141438504</v>
       </c>
       <c r="F17" t="n">
-        <v>1.218018889427185</v>
+        <v>0.3775889277458191</v>
       </c>
       <c r="G17" t="n">
-        <v>3.665286540985107</v>
+        <v>0.8682219982147217</v>
       </c>
       <c r="H17" t="n">
-        <v>1.216225624084473</v>
+        <v>1.482845306396484</v>
       </c>
       <c r="I17" t="n">
-        <v>2.512787580490112</v>
+        <v>1.157455325126648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_18</t>
+          <t>model_5_0_22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09457224962825395</v>
+        <v>0.6588686562906014</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.897336904422908</v>
+        <v>0.4903799895028725</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.8747329989161132</v>
+        <v>-0.9953053735012991</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.820794613470774</v>
+        <v>0.08524180993574759</v>
       </c>
       <c r="F18" t="n">
-        <v>1.211368799209595</v>
+        <v>0.3775318562984467</v>
       </c>
       <c r="G18" t="n">
-        <v>4.939090251922607</v>
+        <v>0.8705492615699768</v>
       </c>
       <c r="H18" t="n">
-        <v>2.32690691947937</v>
+        <v>1.472532153129578</v>
       </c>
       <c r="I18" t="n">
-        <v>3.709827423095703</v>
+        <v>1.153835415840149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_2</t>
+          <t>model_5_0_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.06802465791354684</v>
+        <v>0.6592121508394024</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.663648802959376</v>
+        <v>0.4894065237535035</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03082545845643136</v>
+        <v>-0.9780189514291955</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.789264900288237</v>
+        <v>0.08930335298107595</v>
       </c>
       <c r="F19" t="n">
-        <v>1.181988596916199</v>
+        <v>0.3771517276763916</v>
       </c>
       <c r="G19" t="n">
-        <v>3.375638961791992</v>
+        <v>0.8722121715545654</v>
       </c>
       <c r="H19" t="n">
-        <v>1.202933430671692</v>
+        <v>1.459774732589722</v>
       </c>
       <c r="I19" t="n">
-        <v>2.35318922996521</v>
+        <v>1.148712515830994</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_0</t>
+          <t>model_5_0_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01563502205076039</v>
+        <v>0.6592506943321383</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01782599445716015</v>
+        <v>0.4880430000219972</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3322436773387252</v>
+        <v>-0.9629455070698305</v>
       </c>
       <c r="E20" t="n">
-        <v>0.184202313475924</v>
+        <v>0.09247642242558995</v>
       </c>
       <c r="F20" t="n">
-        <v>1.124008655548096</v>
+        <v>0.3771090507507324</v>
       </c>
       <c r="G20" t="n">
-        <v>1.289889693260193</v>
+        <v>0.8745413422584534</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8288149833679199</v>
+        <v>1.448650479316711</v>
       </c>
       <c r="I20" t="n">
-        <v>1.072913408279419</v>
+        <v>1.144709825515747</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_16</t>
+          <t>model_5_0_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01274246130374768</v>
+        <v>0.659483002774766</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.380272179858595</v>
+        <v>0.4866504942373159</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.8787518208513925</v>
+        <v>-0.9449406253660155</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.558803693905491</v>
+        <v>0.09643503239882434</v>
       </c>
       <c r="F21" t="n">
-        <v>1.120807409286499</v>
+        <v>0.3768519759178162</v>
       </c>
       <c r="G21" t="n">
-        <v>4.283814907073975</v>
+        <v>0.8769200444221497</v>
       </c>
       <c r="H21" t="n">
-        <v>2.331895112991333</v>
+        <v>1.435362935066223</v>
       </c>
       <c r="I21" t="n">
-        <v>3.365263938903809</v>
+        <v>1.139716863632202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_17</t>
+          <t>model_5_0_18</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.008844533497059937</v>
+        <v>0.6597552101276527</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.362433063005854</v>
+        <v>0.4850706010602949</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.893217779626561</v>
+        <v>-0.926270823051853</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.556128096106754</v>
+        <v>0.1004430343495436</v>
       </c>
       <c r="F22" t="n">
-        <v>1.116493582725525</v>
+        <v>0.376550704240799</v>
       </c>
       <c r="G22" t="n">
-        <v>4.261207103729248</v>
+        <v>0.8796189427375793</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349850177764893</v>
+        <v>1.421584725379944</v>
       </c>
       <c r="I22" t="n">
-        <v>3.361745834350586</v>
+        <v>1.134661316871643</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_15</t>
+          <t>model_5_0_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005099059067239731</v>
+        <v>0.6710990045298177</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.252050006294699</v>
+        <v>0.464259267051516</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9508504476443651</v>
+        <v>0.141150367226888</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.525413754884487</v>
+        <v>0.3794182273120696</v>
       </c>
       <c r="F23" t="n">
-        <v>1.112348556518555</v>
+        <v>0.3639964759349823</v>
       </c>
       <c r="G23" t="n">
-        <v>4.12131929397583</v>
+        <v>0.9151694774627686</v>
       </c>
       <c r="H23" t="n">
-        <v>2.421383380889893</v>
+        <v>0.6338295936584473</v>
       </c>
       <c r="I23" t="n">
-        <v>3.321350812911987</v>
+        <v>0.7827743887901306</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_0_1</t>
+          <t>model_5_0_6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01881816840344719</v>
+        <v>0.679616229954948</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.094235037143521</v>
+        <v>0.4228327936253783</v>
       </c>
       <c r="D24" t="n">
-        <v>0.163236877450558</v>
+        <v>-0.2253337214069369</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4399771780421309</v>
+        <v>0.2488118830841948</v>
       </c>
       <c r="F24" t="n">
-        <v>1.08587920665741</v>
+        <v>0.3545704185962677</v>
       </c>
       <c r="G24" t="n">
-        <v>2.654021739959717</v>
+        <v>0.9859356284141541</v>
       </c>
       <c r="H24" t="n">
-        <v>1.038585186004639</v>
+        <v>0.9042942523956299</v>
       </c>
       <c r="I24" t="n">
-        <v>1.893816351890564</v>
+        <v>0.9475153684616089</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_5_0_4</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.697270525740101</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4804769280168062</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2325617257503795</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4162147807610748</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3350323140621185</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8874659538269043</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5663681626319885</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7363608479499817</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_5_0_5</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7195745727398117</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4690497611302625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1711086737449582</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3911017596024546</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3103483021259308</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9069862365722656</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6117204427719116</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7680372595787048</v>
       </c>
     </row>
   </sheetData>
